--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_XemDSduanbds(mobile)_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_XemDSduanbds(mobile)_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36DF09D-5B28-4C15-A2B0-3A97F65D9233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A51C14-7D67-431E-B757-0C038EC989A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
   <si>
     <t>Author</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>TC-BDS-XDSDAM-10</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1171,6 +1174,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,30 +1231,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1276,6 +1291,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1285,61 +1336,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1665,7 +1668,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1681,31 +1684,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1780,21 +1783,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1803,54 +1806,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1877,8 +1880,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1895,80 +1898,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68">
         <v>43567</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2150,8 +2153,8 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31:J33"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2169,17 +2172,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2218,19 +2221,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85">
+      <c r="A4" s="89">
         <v>1</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="45">
@@ -2240,17 +2243,19 @@
         <v>56</v>
       </c>
       <c r="H4" s="39"/>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="99"/>
+      <c r="J4" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="45">
         <v>2</v>
       </c>
@@ -2261,14 +2266,14 @@
       <c r="I5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="45">
         <v>3</v>
       </c>
@@ -2276,23 +2281,23 @@
         <v>77</v>
       </c>
       <c r="H6" s="32"/>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="101"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85">
+      <c r="A7" s="89">
         <v>1</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="45">
@@ -2302,17 +2307,19 @@
         <v>56</v>
       </c>
       <c r="H7" s="39"/>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="99"/>
+      <c r="J7" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="83"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="45">
         <v>2</v>
       </c>
@@ -2323,14 +2330,14 @@
       <c r="I8" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="100"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="84"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="45">
         <v>3</v>
       </c>
@@ -2338,23 +2345,23 @@
         <v>81</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="101"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85">
+      <c r="A10" s="89">
         <v>1</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="45">
@@ -2364,17 +2371,19 @@
         <v>56</v>
       </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="99"/>
+      <c r="J10" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="45">
         <v>2</v>
       </c>
@@ -2385,14 +2394,14 @@
       <c r="I11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="100"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="84"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="45">
         <v>3</v>
       </c>
@@ -2400,39 +2409,39 @@
         <v>83</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="101"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85">
+      <c r="A14" s="89">
         <v>1</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="45">
@@ -2442,17 +2451,19 @@
         <v>56</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="99"/>
+      <c r="J14" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="83"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="45">
         <v>2</v>
       </c>
@@ -2463,14 +2474,14 @@
       <c r="I15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="100"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="84"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="45">
         <v>3</v>
       </c>
@@ -2478,25 +2489,25 @@
         <v>86</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="101"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85">
+      <c r="A17" s="89">
         <v>1</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="45">
@@ -2506,17 +2517,19 @@
         <v>56</v>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="99"/>
+      <c r="J17" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="83"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="45">
         <v>2</v>
       </c>
@@ -2527,22 +2540,22 @@
       <c r="I18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="101"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85">
+      <c r="A19" s="89">
         <v>1</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="45">
@@ -2552,17 +2565,19 @@
         <v>56</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="99"/>
+      <c r="J19" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="83"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="45">
         <v>2</v>
       </c>
@@ -2573,14 +2588,14 @@
       <c r="I20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="84"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="45">
         <v>3</v>
       </c>
@@ -2588,25 +2603,25 @@
         <v>86</v>
       </c>
       <c r="H21" s="32"/>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="101"/>
+      <c r="J21" s="88"/>
     </row>
     <row r="22" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85">
+      <c r="A22" s="89">
         <v>1</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="45">
@@ -2616,17 +2631,19 @@
         <v>56</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="97" t="s">
+      <c r="I22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="99"/>
+      <c r="J22" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="83"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="45">
         <v>2</v>
       </c>
@@ -2637,14 +2654,14 @@
       <c r="I23" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="100"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="84"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="45">
         <v>3</v>
       </c>
@@ -2652,23 +2669,23 @@
         <v>86</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="I24" s="103" t="s">
+      <c r="I24" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="101"/>
+      <c r="J24" s="88"/>
     </row>
     <row r="25" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85">
+      <c r="A25" s="89">
         <v>1</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="88" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F25" s="45">
@@ -2678,17 +2695,19 @@
         <v>56</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="97" t="s">
+      <c r="I25" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="99"/>
+      <c r="J25" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="83"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="45">
         <v>2</v>
       </c>
@@ -2699,14 +2718,14 @@
       <c r="I26" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="100"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="84"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="45">
         <v>3</v>
       </c>
@@ -2714,23 +2733,23 @@
         <v>77</v>
       </c>
       <c r="H27" s="32"/>
-      <c r="I27" s="103" t="s">
+      <c r="I27" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="101"/>
+      <c r="J27" s="88"/>
     </row>
     <row r="28" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85">
+      <c r="A28" s="89">
         <v>1</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="88" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="45">
@@ -2740,17 +2759,19 @@
         <v>56</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="97" t="s">
+      <c r="I28" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="99"/>
+      <c r="J28" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="83"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="45">
         <v>2</v>
       </c>
@@ -2761,14 +2782,14 @@
       <c r="I29" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="100"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="84"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="45">
         <v>3</v>
       </c>
@@ -2776,23 +2797,23 @@
         <v>81</v>
       </c>
       <c r="H30" s="32"/>
-      <c r="I30" s="103" t="s">
+      <c r="I30" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="101"/>
+      <c r="J30" s="88"/>
     </row>
     <row r="31" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85">
+      <c r="A31" s="89">
         <v>1</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="98" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="45">
@@ -2802,17 +2823,19 @@
         <v>56</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="97" t="s">
+      <c r="I31" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="99"/>
+      <c r="J31" s="86" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="83"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="45">
         <v>2</v>
       </c>
@@ -2823,14 +2846,14 @@
       <c r="I32" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="100"/>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="84"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="45">
         <v>3</v>
       </c>
@@ -2838,53 +2861,14 @@
         <v>83</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="103" t="s">
+      <c r="I33" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="101"/>
+      <c r="J33" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
@@ -2901,7 +2885,46 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
